--- a/data/trans_dic/P35-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P35-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1417777626103349</v>
+        <v>0.1450350187065029</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2150945849657745</v>
+        <v>0.2176505351150765</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2611396065234004</v>
+        <v>0.2623654145751788</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3164892720499651</v>
+        <v>0.3160086263316397</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1253109754823457</v>
+        <v>0.1272757491935109</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2246637960590165</v>
+        <v>0.2292159275925174</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2441901230201978</v>
+        <v>0.2461936029998822</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2487771117704821</v>
+        <v>0.2483886350498783</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1456904038140406</v>
+        <v>0.148636512831499</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.235138679745186</v>
+        <v>0.2367439925575833</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.26638202270738</v>
+        <v>0.2650881781864325</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2956353981747288</v>
+        <v>0.2953501822181876</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2151412192002015</v>
+        <v>0.2142489353136316</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3100698704492936</v>
+        <v>0.3061819078624809</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3538487083030393</v>
+        <v>0.3553877772695517</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4004971022220351</v>
+        <v>0.4007351414857367</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2143473353911819</v>
+        <v>0.2129793251120441</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3360875157604765</v>
+        <v>0.3366218544897462</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.344541584711101</v>
+        <v>0.3436166542304718</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3171471943660218</v>
+        <v>0.3194386906138715</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2019937929568815</v>
+        <v>0.2042041836945517</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3091047888721896</v>
+        <v>0.3069071782141843</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3328876786155666</v>
+        <v>0.3330897632488349</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3487218872676806</v>
+        <v>0.3484048311594656</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.2800773913463958</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.391613658297458</v>
+        <v>0.3916136582974579</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1486203684841608</v>
@@ -821,7 +821,7 @@
         <v>0.3071239510790812</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.3765952725001242</v>
+        <v>0.3765952725001243</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.172095311897325</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1538434237917507</v>
+        <v>0.1554591277897743</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2164715140066021</v>
+        <v>0.2150056439959342</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2332517747558669</v>
+        <v>0.239511733305799</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3448791459912066</v>
+        <v>0.3506543861950997</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1143353699727824</v>
+        <v>0.1135443095153115</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2527213243981201</v>
+        <v>0.2516339968693868</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2590897043283168</v>
+        <v>0.2581094667331404</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3386610698679396</v>
+        <v>0.3376629516984564</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1456787781590746</v>
+        <v>0.1422374675510512</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2476492136016019</v>
+        <v>0.2446655268788563</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2602892219961471</v>
+        <v>0.2616741718054925</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3538628062624053</v>
+        <v>0.352888206338931</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.23762109051913</v>
+        <v>0.2446567036490312</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3104318754910798</v>
+        <v>0.3084281249331357</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3302951376547573</v>
+        <v>0.3316052656399117</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4373996522662151</v>
+        <v>0.4391813994873667</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.193224516102494</v>
+        <v>0.1883713977788589</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3618980315022315</v>
+        <v>0.3584205357058426</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3614924211205874</v>
+        <v>0.3605860906520601</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4208358409211643</v>
+        <v>0.4214973031138713</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2047133889707794</v>
+        <v>0.2016491879444991</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3195919778526539</v>
+        <v>0.3185716496033718</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.331322627136934</v>
+        <v>0.3304048253353053</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4149221607950113</v>
+        <v>0.4155441420612354</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.3638068307888074</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.4133012514296952</v>
+        <v>0.4133012514296953</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.206919511628007</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.169316638775129</v>
+        <v>0.1727786235635849</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2507343126938996</v>
+        <v>0.253758034349265</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2788283402507223</v>
+        <v>0.2757168639395073</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3395614642655153</v>
+        <v>0.3425270781021844</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1448116177386651</v>
+        <v>0.148871088601484</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3001416975170281</v>
+        <v>0.2972809262055154</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2848371198259243</v>
+        <v>0.2932826952681865</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.356118081180297</v>
+        <v>0.3539638300838236</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1798352819652053</v>
+        <v>0.1752712824989595</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2801084364955991</v>
+        <v>0.2781003075089589</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2944291286525581</v>
+        <v>0.2903318103215557</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3535960478856254</v>
+        <v>0.3592080915703662</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2447604403759495</v>
+        <v>0.244922607044771</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3254629514594559</v>
+        <v>0.3317415401757987</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3609556803350125</v>
+        <v>0.3619290439668859</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4309836648143731</v>
+        <v>0.4301227200259566</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2730486548473238</v>
+        <v>0.2839106505251017</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4216625360344707</v>
+        <v>0.4320833297427929</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4498255471272061</v>
+        <v>0.4516808096820336</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4702172294096797</v>
+        <v>0.4688285657403732</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2383299620078759</v>
+        <v>0.2399484306639232</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3466939633245801</v>
+        <v>0.3465336656665494</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3674672974320086</v>
+        <v>0.3633285906924282</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4293406269926668</v>
+        <v>0.4354150806626061</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.300291205531476</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3477853093050102</v>
+        <v>0.3477853093050103</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1774113784680752</v>
+        <v>0.1788158970836873</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2608635465004008</v>
+        <v>0.2614532573526874</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2625050320500668</v>
+        <v>0.2626170627794922</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3308097246485198</v>
+        <v>0.3328840621071545</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.16930646231146</v>
+        <v>0.1729575514097747</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2795153360736211</v>
+        <v>0.2769813763390697</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2856277380119857</v>
+        <v>0.2849437378641098</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.300766672306192</v>
+        <v>0.3030276474555953</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1826518397854532</v>
+        <v>0.183476586812155</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2755046324792664</v>
+        <v>0.2745538352993703</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2804126719518025</v>
+        <v>0.2801642010830445</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3271873932138096</v>
+        <v>0.3285044328120862</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2240524936627073</v>
+        <v>0.226651164174788</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.316701110303411</v>
+        <v>0.3167165977686672</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3142105880716695</v>
+        <v>0.3211170013395484</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3930157193182379</v>
+        <v>0.3930780420174778</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2328922642747848</v>
+        <v>0.2313560879662622</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3535446273456909</v>
+        <v>0.350939853338673</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.351862019104104</v>
+        <v>0.3523569609428533</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3573962014108069</v>
+        <v>0.3568585097771541</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2209225605411761</v>
+        <v>0.2228799764041286</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3206963069251722</v>
+        <v>0.3183192535931848</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3223888580327482</v>
+        <v>0.3207380023892915</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3698062832572694</v>
+        <v>0.3692056232212884</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.4212683698200034</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.4559073671219966</v>
+        <v>0.4559073671219967</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1521377894568462</v>
@@ -1241,7 +1241,7 @@
         <v>0.3598674057176669</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.3931888911101717</v>
+        <v>0.3931888911101716</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08431805263490159</v>
+        <v>0.08427540976155518</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2216308216057726</v>
+        <v>0.2204991494890682</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2515027678811184</v>
+        <v>0.2526363933239657</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2607361806225405</v>
+        <v>0.2620108948772769</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1430918219101843</v>
+        <v>0.1462233588700227</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3025700851915126</v>
+        <v>0.3035617862499231</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3849547387743717</v>
+        <v>0.3839800075848864</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4244687907581329</v>
+        <v>0.4245637071313854</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1316783339158216</v>
+        <v>0.1285623609307215</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2794496997393435</v>
+        <v>0.2768414115859835</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3337975648486706</v>
+        <v>0.3344902595708005</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3709048377480534</v>
+        <v>0.3694754135894287</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.153731919526466</v>
+        <v>0.1520382536494206</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3024348191430002</v>
+        <v>0.3026941835446283</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3220098732499488</v>
+        <v>0.3224335325530231</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3450598876499891</v>
+        <v>0.3436773272000022</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2082842903911867</v>
+        <v>0.2099439675114429</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3706940275463413</v>
+        <v>0.3737277246320251</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4593880170616184</v>
+        <v>0.460877081482156</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4838945672977794</v>
+        <v>0.4813520593347121</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1773027291319632</v>
+        <v>0.1807271622980835</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3333124084105386</v>
+        <v>0.3313509484117621</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3868441379812896</v>
+        <v>0.3857487094544491</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4176720207364361</v>
+        <v>0.4182837249867687</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.2991553863055362</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.374431789673378</v>
+        <v>0.3744317896733779</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03396663493378896</v>
+        <v>0.03679346968300286</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03384229218618857</v>
+        <v>0.03435461460133383</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.06775425587244606</v>
+        <v>0.06598457781963099</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1402287752209362</v>
+        <v>0.1445835049532252</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2503229219804513</v>
+        <v>0.2497689134245912</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3615277286147524</v>
+        <v>0.3612249459284521</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3208963378766978</v>
+        <v>0.3196363940283501</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.385896510178728</v>
+        <v>0.3817537217724862</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.210621567154723</v>
+        <v>0.2105874624210411</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.3016023144701993</v>
+        <v>0.3009412947938843</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2741940793579382</v>
+        <v>0.2742436892413193</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3456018516992062</v>
+        <v>0.3435089763990407</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.09185447132275831</v>
+        <v>0.09178810969420159</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.09304478376142124</v>
+        <v>0.09538949477975629</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1421485046829834</v>
+        <v>0.1382376877831369</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2923127217751919</v>
+        <v>0.3044171008982108</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3023942960570941</v>
+        <v>0.3001708801030761</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4245295677040037</v>
+        <v>0.4236538483012761</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3809051800146678</v>
+        <v>0.3788603885091589</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4524627957434835</v>
+        <v>0.4517573546338505</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2562771377489876</v>
+        <v>0.2542260696291264</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3546929108001595</v>
+        <v>0.3536650381290587</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3261343044440538</v>
+        <v>0.3247083302576331</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.40740207255389</v>
+        <v>0.402871274083919</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.2783056630292667</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3483945504746733</v>
+        <v>0.3483945504746732</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.2156578375906407</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1628742540584507</v>
+        <v>0.1617848577341706</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2443807157303561</v>
+        <v>0.2428630133023988</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2619034398306055</v>
+        <v>0.2626424824051012</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3315281230250745</v>
+        <v>0.3314804057143422</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2020091307609169</v>
+        <v>0.201471607672192</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3265504073212424</v>
+        <v>0.3285722329773225</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3319461062941272</v>
+        <v>0.3311260010888118</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3686193762829737</v>
+        <v>0.3689748009184486</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1853114185873918</v>
+        <v>0.1862924632211938</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2906883290818226</v>
+        <v>0.2908411254487122</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.3022877241628449</v>
+        <v>0.3023733879170237</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.354206872797623</v>
+        <v>0.3535346244694473</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1893055977765883</v>
+        <v>0.189374759775074</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2750620146390085</v>
+        <v>0.274702292939299</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2935031396001174</v>
+        <v>0.2952221543484442</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3688734032399754</v>
+        <v>0.3640323218212225</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2305479949333557</v>
+        <v>0.2309653111837646</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3602492891574341</v>
+        <v>0.3617685104633969</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3653313304598282</v>
+        <v>0.3662159018767435</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3973482306632877</v>
+        <v>0.3968649680625315</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2052301138170353</v>
+        <v>0.2056506704243006</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3129698004374224</v>
+        <v>0.3143525080463766</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.325157410671351</v>
+        <v>0.3264284353430945</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3773187738787598</v>
+        <v>0.3777556830330346</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>64494</v>
+        <v>65976</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>91939</v>
+        <v>93031</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>110593</v>
+        <v>111112</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>174265</v>
+        <v>174000</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>36868</v>
+        <v>37446</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>68374</v>
+        <v>69759</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>83999</v>
+        <v>84688</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>121505</v>
+        <v>121316</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>109137</v>
+        <v>111344</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>172068</v>
+        <v>173243</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>204446</v>
+        <v>203453</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>307174</v>
+        <v>306877</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>97866</v>
+        <v>97461</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>132534</v>
+        <v>130873</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>149855</v>
+        <v>150507</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>220521</v>
+        <v>220652</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>63063</v>
+        <v>62661</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>102285</v>
+        <v>102447</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>118519</v>
+        <v>118201</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>154898</v>
+        <v>156017</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>151314</v>
+        <v>152970</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>226195</v>
+        <v>224586</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>255488</v>
+        <v>255643</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>362332</v>
+        <v>362003</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>53513</v>
+        <v>54075</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>87372</v>
+        <v>86780</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>86002</v>
+        <v>88310</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>166650</v>
+        <v>169440</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>39273</v>
+        <v>39002</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>83183</v>
+        <v>82825</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>94828</v>
+        <v>94469</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>143009</v>
+        <v>142588</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>100713</v>
+        <v>98333</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>181469</v>
+        <v>179283</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>191238</v>
+        <v>192255</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>320419</v>
+        <v>319537</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>82654</v>
+        <v>85101</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>125296</v>
+        <v>124487</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>121782</v>
+        <v>122266</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>211357</v>
+        <v>212218</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>66371</v>
+        <v>64704</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>119118</v>
+        <v>117974</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>132308</v>
+        <v>131976</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>177710</v>
+        <v>177989</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>141525</v>
+        <v>139407</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>234186</v>
+        <v>233438</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>243427</v>
+        <v>242752</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>375708</v>
+        <v>376271</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>87355</v>
+        <v>89141</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>152161</v>
+        <v>153996</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>143225</v>
+        <v>141627</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>160141</v>
+        <v>161540</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>23429</v>
+        <v>24086</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>76826</v>
+        <v>76094</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>46749</v>
+        <v>48135</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>66771</v>
+        <v>66367</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>121877</v>
+        <v>118784</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>241685</v>
+        <v>239952</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>199562</v>
+        <v>196785</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>233058</v>
+        <v>236757</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>126279</v>
+        <v>126362</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>197511</v>
+        <v>201321</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>185411</v>
+        <v>185911</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>203257</v>
+        <v>202851</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>44176</v>
+        <v>45934</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>107931</v>
+        <v>110599</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>73828</v>
+        <v>74133</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>88164</v>
+        <v>87904</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>161520</v>
+        <v>162617</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>299137</v>
+        <v>298999</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>249067</v>
+        <v>246262</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>282982</v>
+        <v>286986</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>209834</v>
+        <v>211495</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>293687</v>
+        <v>294351</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>298749</v>
+        <v>298876</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>374425</v>
+        <v>376772</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>115019</v>
+        <v>117500</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>207537</v>
+        <v>205655</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>232637</v>
+        <v>232080</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>258552</v>
+        <v>260496</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>340118</v>
+        <v>341653</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>514729</v>
+        <v>512952</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>547518</v>
+        <v>547033</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>651589</v>
+        <v>654212</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>264999</v>
+        <v>268073</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>356550</v>
+        <v>356567</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>357593</v>
+        <v>365453</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>444832</v>
+        <v>444903</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>158217</v>
+        <v>157173</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>262503</v>
+        <v>260569</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>286583</v>
+        <v>286986</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>307233</v>
+        <v>306771</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>411382</v>
+        <v>415027</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>599161</v>
+        <v>594720</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>629478</v>
+        <v>626255</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>736464</v>
+        <v>735268</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>28029</v>
+        <v>28015</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>111865</v>
+        <v>111293</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>153103</v>
+        <v>153793</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>148089</v>
+        <v>148813</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>76999</v>
+        <v>78684</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>223543</v>
+        <v>224276</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>281920</v>
+        <v>281207</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>352363</v>
+        <v>352442</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>114629</v>
+        <v>111917</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>347509</v>
+        <v>344266</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>447656</v>
+        <v>448585</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>518559</v>
+        <v>516560</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>51103</v>
+        <v>50540</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>152649</v>
+        <v>152780</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>196024</v>
+        <v>196282</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>195982</v>
+        <v>195196</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>112079</v>
+        <v>112972</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>273874</v>
+        <v>276115</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>336431</v>
+        <v>337522</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>401694</v>
+        <v>399583</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>154346</v>
+        <v>157328</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>414490</v>
+        <v>412051</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>518796</v>
+        <v>517327</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>583943</v>
+        <v>584799</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>9750</v>
+        <v>10561</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>8603</v>
+        <v>8733</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>18849</v>
+        <v>18357</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>33266</v>
+        <v>34299</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>297886</v>
+        <v>297227</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>388353</v>
+        <v>388027</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>341538</v>
+        <v>340197</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>325411</v>
+        <v>321917</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>311097</v>
+        <v>311047</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>400647</v>
+        <v>399769</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>368111</v>
+        <v>368178</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>373418</v>
+        <v>371157</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>26365</v>
+        <v>26346</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>23651</v>
+        <v>24247</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>39545</v>
+        <v>38457</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>69345</v>
+        <v>72216</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>359851</v>
+        <v>357205</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>456029</v>
+        <v>455089</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>405407</v>
+        <v>403231</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>381543</v>
+        <v>380948</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>378532</v>
+        <v>375503</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>471172</v>
+        <v>469807</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>437842</v>
+        <v>435928</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>440193</v>
+        <v>435297</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>508309</v>
+        <v>504909</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>811995</v>
+        <v>806952</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>872372</v>
+        <v>874834</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1141278</v>
+        <v>1141113</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>647835</v>
+        <v>646111</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1124951</v>
+        <v>1131917</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1156921</v>
+        <v>1154063</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1338537</v>
+        <v>1339827</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1172619</v>
+        <v>1178827</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1967268</v>
+        <v>1968302</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>2060441</v>
+        <v>2061025</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>2505550</v>
+        <v>2500795</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>590798</v>
+        <v>591014</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>913939</v>
+        <v>912744</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>977627</v>
+        <v>983353</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>1269838</v>
+        <v>1253173</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>739358</v>
+        <v>740697</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1241043</v>
+        <v>1246276</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1273277</v>
+        <v>1276360</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>1442857</v>
+        <v>1441102</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1298661</v>
+        <v>1301322</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>2118061</v>
+        <v>2127418</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>2216325</v>
+        <v>2224988</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>2669037</v>
+        <v>2672127</v>
       </c>
     </row>
     <row r="32">
